--- a/Project/PacketTracer/ExelRetoIPS.xlsx
+++ b/Project/PacketTracer/ExelRetoIPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gatuno7000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almei\Documents\GitHub\TC2006B\Project\PacketTracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A0D88-4DE9-4799-92F8-EE4C218EC70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1135351-C87E-4250-8451-6C63C6CABAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24540" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{C05F4FD9-EC6C-EC42-8D65-095026BF0E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C05F4FD9-EC6C-EC42-8D65-095026BF0E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Reto 04. Diseño Lógico de la red</t>
   </si>
@@ -69,9 +69,6 @@
     <t>% Crecimiento</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Cant. IP para Soporte</t>
   </si>
   <si>
@@ -84,40 +81,7 @@
     <t>IP de Broadcast</t>
   </si>
   <si>
-    <t>Ejemplo 2</t>
-  </si>
-  <si>
-    <t>Ejemplo 1</t>
-  </si>
-  <si>
-    <t>/29</t>
-  </si>
-  <si>
-    <t>255.255.255.248</t>
-  </si>
-  <si>
     <t xml:space="preserve">IP y Mascara asignada: </t>
-  </si>
-  <si>
-    <t>196.16.10.31</t>
-  </si>
-  <si>
-    <t>191.16.10.1</t>
-  </si>
-  <si>
-    <t>192.16.10.30</t>
-  </si>
-  <si>
-    <t>191.16.10.32</t>
-  </si>
-  <si>
-    <t>191.16.10.39</t>
-  </si>
-  <si>
-    <t>191.16.10.31</t>
-  </si>
-  <si>
-    <t>192.16.10.38</t>
   </si>
   <si>
     <t>Equipo</t>
@@ -315,24 +279,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -397,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,37 +361,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -466,9 +400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -506,7 +440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -612,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -754,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -762,66 +696,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F47080-79C7-E546-BE4C-982483514C30}">
-  <dimension ref="B2:T17"/>
+  <dimension ref="B2:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="9" max="9" width="14.19921875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="19.8984375" customWidth="1"/>
+    <col min="12" max="12" width="24.8984375" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.125" customWidth="1"/>
-    <col min="18" max="18" width="21.875" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="22.25" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" customWidth="1"/>
+    <col min="15" max="15" width="18.59765625" customWidth="1"/>
+    <col min="16" max="16" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.8984375" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="20" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="11">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="7" spans="2:20" s="4" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" s="4" customFormat="1" ht="70.2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -829,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -841,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>8</v>
@@ -856,169 +789,176 @@
         <v>9</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10">
+        <v>132</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <f>_xlfn.CEILING.MATH(F8*0.01*D8)</f>
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <f>I8+H8+G8+D8+E8</f>
+        <v>179</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2">
+        <v>256</v>
+      </c>
+      <c r="N8" s="2">
+        <f>M8-2</f>
+        <v>254</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ref="O8:O14" si="0">M8-J8</f>
+        <v>77</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10">
+        <v>132</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G14" si="1">_xlfn.CEILING.MATH(F9*0.01*D9)</f>
+        <v>40</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9+H9+G9+D9+E9</f>
+        <v>179</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2">
+        <v>256</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9:N14" si="2">M9-2</f>
+        <v>254</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10">
+        <v>198</v>
+      </c>
+      <c r="E10" s="10">
         <v>6</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G8" s="8">
-        <f>D8*F8</f>
-        <v>3</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2</v>
-      </c>
-      <c r="J8" s="8">
-        <f>D8+G8+H8+I8</f>
-        <v>26</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6">
-        <v>32</v>
-      </c>
-      <c r="N8" s="6">
-        <f>M8-2</f>
-        <v>30</v>
-      </c>
-      <c r="O8" s="6">
-        <f>M8-N8</f>
-        <v>2</v>
-      </c>
-      <c r="P8" s="12" t="str">
-        <f>F4</f>
-        <v>172.16.8.0</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f>D9*F9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9" s="8">
-        <f>D9+G9+H9+I9</f>
-        <v>5</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="6">
-        <v>8</v>
-      </c>
-      <c r="N9" s="6">
-        <f>M9-2</f>
-        <v>6</v>
-      </c>
-      <c r="O9" s="6">
-        <f>M9-N9</f>
-        <v>2</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="15">
-        <v>132</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <f>_xlfn.CEILING.MATH(F10*0.01*D10)</f>
-        <v>40</v>
-      </c>
       <c r="H10" s="2">
         <v>2</v>
       </c>
@@ -1026,60 +966,60 @@
         <v>2</v>
       </c>
       <c r="J10" s="2">
-        <f>I10+H10+G10+D10+E10</f>
-        <v>179</v>
+        <f t="shared" ref="J10:J11" si="3">I10+H10+G10+D10+E10</f>
+        <v>228</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2">
         <v>256</v>
       </c>
       <c r="N10" s="2">
-        <f>M10-2</f>
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" ref="O10:O16" si="0">M10-J10</f>
-        <v>77</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="15">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10">
         <v>132</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <v>3</v>
       </c>
       <c r="F11" s="2">
         <v>30</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:G16" si="1">_xlfn.CEILING.MATH(F11*0.01*D11)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H11" s="2">
@@ -1089,20 +1029,20 @@
         <v>2</v>
       </c>
       <c r="J11" s="2">
-        <f>I11+H11+G11+D11+E11</f>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2">
         <v>256</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:N16" si="2">M11-2</f>
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
       <c r="O11" s="2">
@@ -1110,40 +1050,40 @@
         <v>77</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="2">
         <v>4</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="12" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
-        <v>3</v>
+    <row r="12" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="15">
-        <v>198</v>
-      </c>
-      <c r="E12" s="15">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="10">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
       </c>
       <c r="F12" s="2">
         <v>30</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -1152,53 +1092,53 @@
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J13" si="3">I12+H12+G12+D12+E12</f>
-        <v>268</v>
+        <f>I12+H12+G12+D12+E12</f>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M12" s="2">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="2"/>
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="2">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="10">
         <v>40</v>
       </c>
-      <c r="D13" s="15">
-        <v>132</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>3</v>
       </c>
       <c r="F13" s="2">
@@ -1206,7 +1146,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -1215,61 +1155,61 @@
         <v>2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>179</v>
+        <f>I13+H13+G13+D13+E13</f>
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="M13" s="2">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="2"/>
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="T13" s="11">
+        <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="13">
-        <v>5</v>
+    <row r="14" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="15">
-        <v>15</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="10">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>30</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
@@ -1279,213 +1219,87 @@
       </c>
       <c r="J14" s="2">
         <f>I14+H14+G14+D14+E14</f>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M14" s="2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="T14" s="2">
+        <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="15">
-        <v>40</v>
-      </c>
-      <c r="E15" s="15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <f>I15+H15+G15+D15+E15</f>
-        <v>59</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="2">
-        <v>64</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>7</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B16" s="13">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="15">
-        <v>32</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2">
-        <f>I16+H16+G16+D16+E16</f>
-        <v>47</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="2">
-        <v>64</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+    <row r="15" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14">
-        <f>SUM(D8:D16)</f>
-        <v>704</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14">
-        <f>SUM(G8:G16)</f>
-        <v>210</v>
-      </c>
-      <c r="H17" s="14">
-        <f>SUM(H8:H16)</f>
-        <v>15</v>
-      </c>
-      <c r="I17" s="14">
-        <f>SUM(I8:I16)</f>
-        <v>18</v>
-      </c>
-      <c r="J17" s="14">
-        <f>SUM(J8:J16)</f>
-        <v>968</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14">
-        <f>SUM(M8:M16)</f>
-        <v>1224</v>
-      </c>
-      <c r="N17" s="14">
-        <f>SUM(N8:N16)</f>
-        <v>1206</v>
-      </c>
-      <c r="O17" s="14">
-        <f>SUM(O8:O16)</f>
-        <v>251</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <f>SUM(D8:D14)</f>
+        <v>681</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <f>SUM(G8:G14)</f>
+        <v>167</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H8:H14)</f>
+        <v>14</v>
+      </c>
+      <c r="I15" s="9">
+        <f>SUM(I8:I14)</f>
+        <v>14</v>
+      </c>
+      <c r="J15" s="9">
+        <f>SUM(J8:J14)</f>
+        <v>897</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9">
+        <f>SUM(M8:M14)</f>
+        <v>1184</v>
+      </c>
+      <c r="N15" s="9">
+        <f>SUM(N8:N14)</f>
+        <v>1170</v>
+      </c>
+      <c r="O15" s="9">
+        <f>SUM(O8:O14)</f>
+        <v>287</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Project/PacketTracer/ExelRetoIPS.xlsx
+++ b/Project/PacketTracer/ExelRetoIPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almei\Documents\GitHub\TC2006B\Project\PacketTracer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gatuno7000\Documents\GitHub\TC2006B\Project\PacketTracer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1135351-C87E-4250-8451-6C63C6CABAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91378876-B3F7-403C-97FE-B74D7F484734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C05F4FD9-EC6C-EC42-8D65-095026BF0E1F}"/>
+    <workbookView xWindow="-26190" yWindow="-12900" windowWidth="21600" windowHeight="11295" xr2:uid="{C05F4FD9-EC6C-EC42-8D65-095026BF0E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,7 +440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -546,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,34 +698,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F47080-79C7-E546-BE4C-982483514C30}">
   <dimension ref="B2:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" customWidth="1"/>
-    <col min="5" max="5" width="18.09765625" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
-    <col min="9" max="9" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="19.8984375" customWidth="1"/>
-    <col min="12" max="12" width="24.8984375" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="16.8984375" customWidth="1"/>
-    <col min="15" max="15" width="18.59765625" customWidth="1"/>
-    <col min="16" max="16" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.8984375" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.875" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="20" width="22.19921875" customWidth="1"/>
+    <col min="19" max="20" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -754,7 +754,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="7" spans="2:20" s="4" customFormat="1" ht="70.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" s="4" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -813,7 +813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <v>1</v>
       </c>
@@ -873,10 +873,10 @@
         <v>41</v>
       </c>
       <c r="T8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>2</v>
       </c>
@@ -936,10 +936,10 @@
         <v>42</v>
       </c>
       <c r="T9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>3</v>
       </c>
@@ -999,10 +999,10 @@
         <v>43</v>
       </c>
       <c r="T10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <v>4</v>
       </c>
@@ -1062,10 +1062,10 @@
         <v>37</v>
       </c>
       <c r="T11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
         <v>5</v>
       </c>
@@ -1125,10 +1125,10 @@
         <v>39</v>
       </c>
       <c r="T12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
         <v>6</v>
       </c>
@@ -1188,10 +1188,10 @@
         <v>58</v>
       </c>
       <c r="T13" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B14" s="8">
         <v>7</v>
       </c>
@@ -1251,10 +1251,10 @@
         <v>63</v>
       </c>
       <c r="T14" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
